--- a/src/main/resources/97-mall-swarm/mall-admin_attribute.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-admin_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="628">
   <si>
     <t>类名</t>
   </si>
@@ -1698,15 +1698,39 @@
     <t>com.macro.mall.controller.OmsOrderSettingController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.OmsOrderSetting)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.OmsOrderSetting</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.SmsFlashPromotionProductRelationController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.SmsFlashPromotionProductRelation)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.SmsFlashPromotionProductRelation</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.UmsResourceCategoryController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsResourceCategory)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsResourceCategory</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.OmsOrderReturnReasonController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.OmsOrderReturnReason)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.OmsOrderReturnReason</t>
+  </si>
+  <si>
     <t>updateStatus(java.lang.Integer,java.util.List)</t>
   </si>
   <si>
@@ -1716,6 +1740,12 @@
     <t>com.macro.mall.controller.UmsRoleController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsRole)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsRole</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.CmsSubjectController</t>
   </si>
   <si>
@@ -1749,12 +1779,30 @@
     <t>com.macro.mall.controller.UmsResourceController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsResource)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsResource</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.SmsHomeAdvertiseController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.SmsHomeAdvertise)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.SmsHomeAdvertise</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.SmsFlashPromotionSessionController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.SmsFlashPromotionSession)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.SmsFlashPromotionSession</t>
+  </si>
+  <si>
     <t>com.macro.mall.controller.PmsBrandController</t>
   </si>
   <si>
@@ -1794,6 +1842,12 @@
     <t>com.macro.mall.controller.SmsFlashPromotionController</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.SmsFlashPromotion)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.SmsFlashPromotion</t>
+  </si>
+  <si>
     <t>update(java.lang.Long,java.lang.Integer)</t>
   </si>
   <si>
@@ -1827,10 +1881,22 @@
     <t>logout()</t>
   </si>
   <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsAdmin)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsAdmin</t>
+  </si>
+  <si>
     <t>login(com.macro.mall.dto.UmsAdminLoginParam)</t>
   </si>
   <si>
     <t>com.macro.mall.controller.UmsMenuController</t>
+  </si>
+  <si>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsMenu)</t>
+  </si>
+  <si>
+    <t>java.lang.Long,com.macro.mall.model.UmsMenu</t>
   </si>
 </sst>
 </file>
@@ -8750,10 +8816,10 @@
         <v>560</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="D20" t="s">
         <v>555</v>
@@ -8764,13 +8830,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="D21" t="s">
         <v>555</v>
@@ -8781,7 +8847,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B22" t="s">
         <v>291</v>
@@ -8798,7 +8864,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B23" t="s">
         <v>344</v>
@@ -8815,7 +8881,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
         <v>98</v>
@@ -8832,7 +8898,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s">
         <v>214</v>
@@ -8849,7 +8915,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B26" t="s">
         <v>420</v>
@@ -8866,7 +8932,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B27" t="s">
         <v>381</v>
@@ -8883,13 +8949,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>567</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>568</v>
       </c>
       <c r="D28" t="s">
         <v>555</v>
@@ -8900,7 +8966,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B29" t="s">
         <v>214</v>
@@ -8917,7 +8983,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B30" t="s">
         <v>411</v>
@@ -8934,13 +9000,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>570</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>571</v>
       </c>
       <c r="D31" t="s">
         <v>555</v>
@@ -8951,7 +9017,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B32" t="s">
         <v>502</v>
@@ -8968,7 +9034,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B33" t="s">
         <v>126</v>
@@ -8985,7 +9051,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
         <v>344</v>
@@ -9002,13 +9068,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B35" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C35" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D35" t="s">
         <v>555</v>
@@ -9019,7 +9085,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B36" t="s">
         <v>251</v>
@@ -9036,7 +9102,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B37" t="s">
         <v>149</v>
@@ -9053,7 +9119,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B38" t="s">
         <v>256</v>
@@ -9070,7 +9136,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -9087,7 +9153,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B40" t="s">
         <v>403</v>
@@ -9104,7 +9170,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B41" t="s">
         <v>126</v>
@@ -9121,7 +9187,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B42" t="s">
         <v>340</v>
@@ -9138,13 +9204,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>575</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>576</v>
       </c>
       <c r="D43" t="s">
         <v>555</v>
@@ -9155,7 +9221,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B44" t="s">
         <v>345</v>
@@ -9172,7 +9238,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B45" t="s">
         <v>381</v>
@@ -9189,10 +9255,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B46" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C46" t="s">
         <v>150</v>
@@ -9206,7 +9272,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B47" t="s">
         <v>381</v>
@@ -9223,7 +9289,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B48" t="s">
         <v>439</v>
@@ -9240,7 +9306,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B49" t="s">
         <v>157</v>
@@ -9257,7 +9323,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B50" t="s">
         <v>126</v>
@@ -9274,7 +9340,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B51" t="s">
         <v>344</v>
@@ -9291,7 +9357,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B52" t="s">
         <v>355</v>
@@ -9308,10 +9374,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B53" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C53" t="s">
         <v>261</v>
@@ -9325,7 +9391,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B54" t="s">
         <v>425</v>
@@ -9342,7 +9408,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B55" t="s">
         <v>344</v>
@@ -9359,7 +9425,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="B56" t="s">
         <v>214</v>
@@ -9376,7 +9442,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B57" t="s">
         <v>381</v>
@@ -9393,7 +9459,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B58" t="s">
         <v>248</v>
@@ -9410,7 +9476,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B59" t="s">
         <v>303</v>
@@ -9427,7 +9493,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B60" t="s">
         <v>474</v>
@@ -9444,7 +9510,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B61" t="s">
         <v>475</v>
@@ -9461,7 +9527,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B62" t="s">
         <v>477</v>
@@ -9478,7 +9544,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B63" t="s">
         <v>374</v>
@@ -9495,7 +9561,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B64" t="s">
         <v>542</v>
@@ -9512,7 +9578,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B65" t="s">
         <v>344</v>
@@ -9529,7 +9595,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
@@ -9546,7 +9612,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B67" t="s">
         <v>214</v>
@@ -9563,7 +9629,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B68" t="s">
         <v>353</v>
@@ -9580,7 +9646,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B69" t="s">
         <v>435</v>
@@ -9597,7 +9663,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B70" t="s">
         <v>154</v>
@@ -9614,7 +9680,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -9631,10 +9697,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B72" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C72" t="s">
         <v>42</v>
@@ -9648,7 +9714,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B73" t="s">
         <v>344</v>
@@ -9665,13 +9731,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>589</v>
       </c>
       <c r="D74" t="s">
         <v>555</v>
@@ -9682,7 +9748,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B75" t="s">
         <v>162</v>
@@ -9699,7 +9765,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B76" t="s">
         <v>371</v>
@@ -9716,7 +9782,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B77" t="s">
         <v>344</v>
@@ -9733,7 +9799,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B78" t="s">
         <v>381</v>
@@ -9750,7 +9816,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B79" t="s">
         <v>458</v>
@@ -9767,7 +9833,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="B80" t="s">
         <v>214</v>
@@ -9784,7 +9850,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B81" t="s">
         <v>389</v>
@@ -9801,7 +9867,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B82" t="s">
         <v>203</v>
@@ -9818,7 +9884,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B83" t="s">
         <v>126</v>
@@ -9835,7 +9901,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B84" t="s">
         <v>340</v>
@@ -9852,7 +9918,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B85" t="s">
         <v>344</v>
@@ -9869,13 +9935,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>591</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>592</v>
       </c>
       <c r="D86" t="s">
         <v>555</v>
@@ -9886,7 +9952,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B87" t="s">
         <v>250</v>
@@ -9903,7 +9969,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B88" t="s">
         <v>423</v>
@@ -9920,7 +9986,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B89" t="s">
         <v>128</v>
@@ -9937,7 +10003,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s">
         <v>340</v>
@@ -9954,7 +10020,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B91" t="s">
         <v>344</v>
@@ -9971,13 +10037,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B92" t="s">
-        <v>489</v>
+        <v>594</v>
       </c>
       <c r="C92" t="s">
-        <v>424</v>
+        <v>595</v>
       </c>
       <c r="D92" t="s">
         <v>555</v>
@@ -9988,7 +10054,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B93" t="s">
         <v>214</v>
@@ -10005,10 +10071,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="C94" t="s">
         <v>218</v>
@@ -10022,7 +10088,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B95" t="s">
         <v>474</v>
@@ -10039,10 +10105,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C96" t="s">
         <v>150</v>
@@ -10056,7 +10122,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B97" t="s">
         <v>263</v>
@@ -10073,10 +10139,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B98" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -10090,10 +10156,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B99" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="C99" t="s">
         <v>95</v>
@@ -10107,7 +10173,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s">
         <v>344</v>
@@ -10124,7 +10190,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B101" t="s">
         <v>214</v>
@@ -10141,10 +10207,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="C102" t="s">
         <v>22</v>
@@ -10158,13 +10224,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="C103" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="D103" t="s">
         <v>555</v>
@@ -10175,10 +10241,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -10192,7 +10258,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="B105" t="s">
         <v>399</v>
@@ -10209,7 +10275,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
         <v>53</v>
@@ -10226,7 +10292,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B107" t="s">
         <v>317</v>
@@ -10243,10 +10309,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B108" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="C108" t="s">
         <v>85</v>
@@ -10260,7 +10326,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
@@ -10277,7 +10343,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s">
         <v>257</v>
@@ -10294,7 +10360,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B111" t="s">
         <v>126</v>
@@ -10311,7 +10377,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B112" t="s">
         <v>178</v>
@@ -10328,7 +10394,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="B113" t="s">
         <v>181</v>
@@ -10345,13 +10411,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>609</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>610</v>
       </c>
       <c r="D114" t="s">
         <v>555</v>
@@ -10362,10 +10428,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B115" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="C115" t="s">
         <v>44</v>
@@ -10379,7 +10445,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B116" t="s">
         <v>418</v>
@@ -10396,7 +10462,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B117" t="s">
         <v>344</v>
@@ -10413,7 +10479,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B118" t="s">
         <v>214</v>
@@ -10430,10 +10496,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="B119" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C119" t="s">
         <v>150</v>
@@ -10447,7 +10513,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B120" t="s">
         <v>388</v>
@@ -10464,7 +10530,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B121" t="s">
         <v>58</v>
@@ -10481,7 +10547,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B122" t="s">
         <v>344</v>
@@ -10498,7 +10564,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B123" t="s">
         <v>382</v>
@@ -10515,7 +10581,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B124" t="s">
         <v>548</v>
@@ -10532,7 +10598,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="B125" t="s">
         <v>214</v>
@@ -10549,7 +10615,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B126" t="s">
         <v>355</v>
@@ -10566,7 +10632,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B127" t="s">
         <v>291</v>
@@ -10583,7 +10649,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B128" t="s">
         <v>332</v>
@@ -10600,7 +10666,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B129" t="s">
         <v>479</v>
@@ -10617,7 +10683,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B130" t="s">
         <v>126</v>
@@ -10634,7 +10700,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B131" t="s">
         <v>355</v>
@@ -10651,7 +10717,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s">
         <v>291</v>
@@ -10668,7 +10734,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B133" t="s">
         <v>332</v>
@@ -10685,7 +10751,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B134" t="s">
         <v>479</v>
@@ -10702,7 +10768,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B135" t="s">
         <v>126</v>
@@ -10719,7 +10785,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="B136" t="s">
         <v>128</v>
@@ -10736,7 +10802,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -10753,7 +10819,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B138" t="s">
         <v>355</v>
@@ -10770,7 +10836,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B139" t="s">
         <v>291</v>
@@ -10787,7 +10853,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B140" t="s">
         <v>332</v>
@@ -10804,7 +10870,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B141" t="s">
         <v>479</v>
@@ -10821,7 +10887,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B142" t="s">
         <v>126</v>
@@ -10838,7 +10904,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B143" t="s">
         <v>387</v>
@@ -10855,10 +10921,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B144" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -10872,10 +10938,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B145" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -10889,7 +10955,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B146" t="s">
         <v>252</v>
@@ -10906,7 +10972,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B147" t="s">
         <v>149</v>
@@ -10923,7 +10989,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B148" t="s">
         <v>326</v>
@@ -10940,7 +11006,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B149" t="s">
         <v>114</v>
@@ -10957,7 +11023,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B150" t="s">
         <v>340</v>
@@ -10974,7 +11040,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B151" t="s">
         <v>344</v>
@@ -10991,13 +11057,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>622</v>
       </c>
       <c r="C152" t="s">
-        <v>67</v>
+        <v>623</v>
       </c>
       <c r="D152" t="s">
         <v>555</v>
@@ -11008,10 +11074,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B153" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C153" t="s">
         <v>135</v>
@@ -11025,7 +11091,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B154" t="s">
         <v>214</v>
@@ -11042,7 +11108,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="B155" t="s">
         <v>106</v>
@@ -11059,7 +11125,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B156" t="s">
         <v>392</v>
@@ -11076,13 +11142,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>626</v>
       </c>
       <c r="C157" t="s">
-        <v>145</v>
+        <v>627</v>
       </c>
       <c r="D157" t="s">
         <v>555</v>
@@ -11093,7 +11159,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B158" t="s">
         <v>544</v>
@@ -11110,7 +11176,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B159" t="s">
         <v>239</v>
@@ -11127,7 +11193,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B160" t="s">
         <v>344</v>
@@ -11144,7 +11210,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B161" t="s">
         <v>268</v>
@@ -11161,7 +11227,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="B162" t="s">
         <v>214</v>
